--- a/01_Datos_originales/links_paises.xlsx
+++ b/01_Datos_originales/links_paises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - United Nations Development Programme\Proyectos\ODS_CV\01_Datos_originales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - United Nations Development Programme\Proyectos\IGT_ALMP\01_Datos_originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6576249-4589-41E6-92CD-508AF8B8BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB3CF6-CD72-4B04-A983-7AA484B0246D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4EE0B13-533F-49BD-8DF8-09DA705BF39E}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>http://www.odscadenasvalor.org/</t>
   </si>
   <si>
-    <t>https://undp4business.al/en/home/</t>
-  </si>
-  <si>
     <t>https://enmarchadigital.travesiaemprendedora.org/</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>https://undp4business.al/</t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4E2515-6DC6-43C7-80CA-236FA8B617FB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -472,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -480,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -488,16 +490,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.empresassosteniblesrd.org%2Fpracticas-prometedoras-2023%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644751477%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=m%2BQcJXfWVnx5fkb3B4KCPFGEXpnTrTlt8ok5y5y1R2E%3D&amp;reserved=0" xr:uid="{678999EF-8309-42AD-80B9-C5428B4CA2B2}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://eur03.safelinks.protection.outlook.com/?url=http%3A%2F%2Fwww.odscadenasvalor.org%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644751477%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=um7wp5Aq6RhFQIKoAvx7mHrINHt7E548oEp8GOftX9k%3D&amp;reserved=0" xr:uid="{81DD5438-D9C5-47B4-823E-7B0E3A232D79}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fundp4business.al%2Fen%2Fhome%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644751477%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=9EKht6ojQghJ4qxfBqByIlFU%2BXbCrE%2B2vg8ohEHNMps%3D&amp;reserved=0" xr:uid="{BB3FE141-5A66-41F7-96E8-B983A4EBA2DD}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fenmarchadigital.travesiaemprendedora.org%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644751477%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1VFjluMcqP5xcscKZcpPQVU3dDXIXjC5Oi8idd2OtOo%3D&amp;reserved=0" xr:uid="{C79BAA81-EFF5-4C20-A1D0-B9B0272D2FB4}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmintic.gov.gy%2Fdigital-in-motion%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644907763%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=l6NwNPJ15trJ%2FJftwOPDhONlegIow3DBmcnIHAQuDEs%3D&amp;reserved=0" xr:uid="{EE060218-F1D5-4F7D-B19A-C0707571A0B8}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fenmarchadigital.travesiaemprendedora.org%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644751477%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1VFjluMcqP5xcscKZcpPQVU3dDXIXjC5Oi8idd2OtOo%3D&amp;reserved=0" xr:uid="{C79BAA81-EFF5-4C20-A1D0-B9B0272D2FB4}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmintic.gov.gy%2Fdigital-in-motion%2F&amp;data=05%7C01%7Cana.pirela%40undp.org%7Cc0a68f0ad72b42b29b6008dbdfc671c6%7Cb3e5db5e2944483799f57488ace54319%7C0%7C0%7C638349815644907763%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=l6NwNPJ15trJ%2FJftwOPDhONlegIow3DBmcnIHAQuDEs%3D&amp;reserved=0" xr:uid="{EE060218-F1D5-4F7D-B19A-C0707571A0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
